--- a/ePICreator/Mirtazapine.xlsx
+++ b/ePICreator/Mirtazapine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42604D07-1BBB-754B-9BA8-D83053CA043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936C8EAD-CFF5-B348-9136-AB2944577A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>conceptID</t>
-  </si>
-  <si>
-    <t>0d69fdcb-33cf-407f-8209-a6529856ab4f</t>
   </si>
   <si>
     <t>https://spor.ema.europa.eu/rmswi/</t>
@@ -1015,7 +1012,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1032,7 +1029,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1356,25 +1353,25 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" t="s">
-        <v>71</v>
-      </c>
       <c r="L1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1383,10 +1380,10 @@
     <row r="2" spans="1:13" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -1404,13 +1401,13 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" t="s">
         <v>108</v>
-      </c>
-      <c r="K2" t="s">
-        <v>109</v>
       </c>
       <c r="L2" s="13">
         <v>31620</v>
@@ -1426,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1453,37 +1450,37 @@
         <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
         <v>28</v>
       </c>
       <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>87</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>88</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>89</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>90</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>91</v>
-      </c>
-      <c r="O1" t="s">
-        <v>92</v>
       </c>
       <c r="P1" t="s">
         <v>10</v>
@@ -1492,44 +1489,42 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1577,13 +1572,13 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="19">
         <v>44910</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1615,22 +1610,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
         <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1639,10 +1634,10 @@
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -1651,7 +1646,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -1660,10 +1655,10 @@
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1705,28 +1700,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
         <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
         <v>41</v>
       </c>
       <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" t="s">
         <v>78</v>
-      </c>
-      <c r="K1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" t="s">
-        <v>79</v>
       </c>
       <c r="M1" t="s">
         <v>42</v>
@@ -1738,10 +1733,10 @@
     <row r="2" spans="1:14" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -1750,22 +1745,22 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
         <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1813,13 +1808,13 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1843,10 +1838,10 @@
     <row r="2" spans="1:13" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1863,10 +1858,10 @@
     <row r="3" spans="1:13" ht="21">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1883,10 +1878,10 @@
     <row r="4" spans="1:13" ht="21">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1895,10 +1890,10 @@
         <v>72072</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -1913,10 +1908,10 @@
     <row r="5" spans="1:13" ht="21">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1933,7 +1928,7 @@
     <row r="6" spans="1:13" ht="21">
       <c r="A6" s="1"/>
       <c r="B6" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>20</v>
@@ -1953,10 +1948,10 @@
     <row r="7" spans="1:13" ht="21">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -2016,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
@@ -2067,22 +2062,22 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L1" t="s">
         <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>96</v>
-      </c>
-      <c r="P1" t="s">
-        <v>97</v>
       </c>
       <c r="Q1" t="s">
         <v>10</v>
@@ -2091,37 +2086,37 @@
     <row r="2" spans="1:17">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>123</v>
       </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>124</v>
       </c>
-      <c r="H2" t="s">
-        <v>125</v>
-      </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M2" s="9">
         <v>100000000000</v>
@@ -2182,16 +2177,16 @@
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="14">
         <v>100000073380</v>
@@ -2266,7 +2261,7 @@
     <row r="2" spans="1:11" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2275,7 +2270,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="14">
         <v>100000073380</v>
@@ -2342,58 +2337,58 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M1" t="s">
         <v>35</v>
       </c>
       <c r="N1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O1" t="s">
         <v>40</v>
       </c>
       <c r="P1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
         <v>129</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>130</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>131</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>132</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>133</v>
-      </c>
-      <c r="V1" t="s">
-        <v>134</v>
       </c>
       <c r="W1" t="s">
         <v>10</v>
@@ -2402,7 +2397,7 @@
     <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -2417,7 +2412,7 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I2">
         <v>123456</v>

--- a/ePICreator/Mirtazapine.xlsx
+++ b/ePICreator/Mirtazapine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936C8EAD-CFF5-B348-9136-AB2944577A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE962EB-DDEE-3944-B2E7-23E858375D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="147">
   <si>
     <t>id</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>https://cima.aemps.es/ids|https://www.who-umc.org/phpid</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2011,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D6:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2059,7 +2062,7 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="K1" t="s">
         <v>92</v>

--- a/ePICreator/Mirtazapine.xlsx
+++ b/ePICreator/Mirtazapine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE962EB-DDEE-3944-B2E7-23E858375D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB3A1E-5F67-5947-9CB9-BE3F93144928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
@@ -853,10 +853,10 @@
     <t>67.068|0x6c47381b040e5b588db23b2272f28eec</t>
   </si>
   <si>
-    <t>https://cima.aemps.es/ids|https://www.who-umc.org/phpid</t>
-  </si>
-  <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2062,7 +2062,7 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K1" t="s">
         <v>92</v>
@@ -2095,7 +2095,7 @@
         <v>144</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
         <v>122</v>

--- a/ePICreator/Mirtazapine.xlsx
+++ b/ePICreator/Mirtazapine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB3A1E-5F67-5947-9CB9-BE3F93144928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAFC1F7-1B73-B946-B18E-ED9778547BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="147">
   <si>
     <t>id</t>
   </si>
@@ -1032,9 +1032,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1072,7 +1072,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1178,7 +1178,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1320,7 +1320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1540,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1582,6 +1582,9 @@
       </c>
       <c r="E2" t="s">
         <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2014,7 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/ePICreator/Mirtazapine.xlsx
+++ b/ePICreator/Mirtazapine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAFC1F7-1B73-B946-B18E-ED9778547BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78B9591-F71F-6C4A-A7F9-6CF917834BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="148">
   <si>
     <t>id</t>
   </si>
@@ -857,6 +857,9 @@
   </si>
   <si>
     <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRTAZAPINA CINFA </t>
   </si>
 </sst>
 </file>
@@ -1426,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1492,7 +1495,7 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -1540,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1584,7 +1587,7 @@
         <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
